--- a/data/trans_bre/P16B08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B08-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B08-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,71%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-10,02; 24,21</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6,08; 47,57</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-10,05; 29,44</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,47; 90,19</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,74</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 47,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,6; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,88; 17,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 90,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,6; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,89; 19,5</t>
         </is>
       </c>
     </row>
@@ -774,22 +774,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,33%</t>
         </is>
       </c>
     </row>
@@ -812,22 +812,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>-7,07; 15,75</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="G9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,16; 18,36</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>25,5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-8,84</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -882,27 +882,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,0; 68,54</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-21,96; -2,62</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 215,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,96; -2,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -934,22 +934,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,09%</t>
         </is>
       </c>
     </row>
@@ -972,22 +972,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-20,58; 11,87</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,92; 13,59</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,22%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,63; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,5; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,05; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,63; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,5; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,05; 0,0</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 18,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,39; -1,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 9,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 23,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,39; -1,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 10,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B08-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-7,31</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,07%</t>
+          <t>-6,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,51%</t>
+          <t>-6,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,22%</t>
+          <t>-7,31%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 0,0</t>
+          <t>-28,12; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 0,0</t>
+          <t>-31,68; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 0,0</t>
+          <t>-38,48; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 0,0</t>
+          <t>-28,12; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,5; 0,0</t>
+          <t>-31,68; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 0,0</t>
+          <t>-38,48; 0,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1122,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7,39</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-3,18</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8,1%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-3,18%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>1,69; 18,84</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-6,39; -1,11</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-1,72; 9,59</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>1,75; 23,4</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-6,39; -1,11</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-1,74; 10,88</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1169,6 +1249,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16B08-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B08-Edad-trans_bre.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 24,21</t>
+          <t>-9,93; 23,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,08; 47,57</t>
+          <t>6,11; 51,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 29,44</t>
+          <t>-9,95; 31,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 90,19</t>
+          <t>6,5; 106,57</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,73</t>
+          <t>0,0; 47,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 0,0</t>
+          <t>-18,28; 0,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 17,11</t>
+          <t>-5,95; 15,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 90,51</t>
+          <t>0,0; 91,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 0,0</t>
+          <t>-18,28; 0,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 19,5</t>
+          <t>-5,97; 18,44</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 15,75</t>
+          <t>-7,23; 15,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 18,36</t>
+          <t>-7,33; 19,06</t>
         </is>
       </c>
     </row>
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,54</t>
+          <t>0,0; 65,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,96; -2,62</t>
+          <t>-22,81; -2,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 215,65</t>
+          <t>0,0; 188,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,96; -2,62</t>
+          <t>-22,81; -2,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 11,87</t>
+          <t>-24,41; 11,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,92; 13,59</t>
+          <t>-25,76; 13,22</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 0,0</t>
+          <t>-24,66; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,68; 0,0</t>
+          <t>-26,91; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-38,48; 0,0</t>
+          <t>-30,94; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 0,0</t>
+          <t>-24,66; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,68; 0,0</t>
+          <t>-26,91; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,48; 0,0</t>
+          <t>-30,94; 0,0</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,69; 18,84</t>
+          <t>1,21; 18,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,39; -1,11</t>
+          <t>-6,93; -1,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 9,59</t>
+          <t>-1,5; 10,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,75; 23,4</t>
+          <t>1,26; 22,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,39; -1,11</t>
+          <t>-6,93; -1,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 10,88</t>
+          <t>-1,47; 11,47</t>
         </is>
       </c>
     </row>
